--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2491919.951891471</v>
+        <v>2489667.872180264</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>92.72329049755537</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7944255145766</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>79.58544726978025</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.2317318494232</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>37.84125266804958</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316065</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>5.97231317091755</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.604778717158662</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091492</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>192.1675620474802</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805175974</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>179.8780801519785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520488</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.0764108006838</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>392.1402278727769</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>392.1402278727769</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>244.2271342903838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4492,46 +4492,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.507005672471</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5174547744537</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.7248756309235</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2085.807325826217</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1716.844808885805</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1358.579110279054</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>972.7908576808102</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>561.8049528912027</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>146.7325027361991</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939507</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.54649786615</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.54649786615</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>2472.407165890339</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.4603107317583</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218339</v>
@@ -4726,49 +4726,49 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1831.431451279436</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1609.664835848962</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1320.561968974606</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1065.877480768719</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>776.4603107317583</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>776.4603107317583</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.4603107317583</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495404</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>769.4825048886539</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>383.6942522904097</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>376.7487515412062</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>365.7167054266068</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>68.133105035374</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1733.185899555685</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1733.185899555685</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532801</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2265.268053123717</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1976.192826467915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1432.091168225067</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.10161732705</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3090381835199</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,55 +6917,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664526</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075468</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>37.52737017530978</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="13">
@@ -26314,7 +26314,7 @@
         <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448195</v>
@@ -26323,37 +26323,37 @@
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.0670231449</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314489</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890725.381667311</v>
+        <v>-890725.3816673108</v>
       </c>
       <c r="C6" t="n">
-        <v>438019.3640602815</v>
+        <v>438019.3640602808</v>
       </c>
       <c r="D6" t="n">
-        <v>438019.3640602808</v>
+        <v>438019.3640602814</v>
       </c>
       <c r="E6" t="n">
-        <v>187836.5908766991</v>
+        <v>187801.8529512633</v>
       </c>
       <c r="F6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="G6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="H6" t="n">
-        <v>513249.0526840542</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="I6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="J6" t="n">
-        <v>295717.8502867765</v>
+        <v>295683.1123613411</v>
       </c>
       <c r="K6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="L6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586186</v>
       </c>
       <c r="M6" t="n">
-        <v>428194.0247485426</v>
+        <v>428159.2868231067</v>
       </c>
       <c r="N6" t="n">
-        <v>513249.0526840539</v>
+        <v>513214.3147586182</v>
       </c>
       <c r="O6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="P6" t="n">
-        <v>513249.052684054</v>
+        <v>513214.3147586184</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,10 +26960,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272.5496012734522</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.443513141477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>65.835600753151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>27.98010635618965</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>256.766511719271</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.698070624447</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>10.12388134767377</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>183.7967121605244</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>39.97215105576729</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047089</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>27.38138722868902</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,10 +34463,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,10 +38111,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
